--- a/Output/Germany/PRODUCTS_Germany.xlsx
+++ b/Output/Germany/PRODUCTS_Germany.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="125">
   <si>
     <t>PRODUCTCODE</t>
   </si>
